--- a/docs/efforts/Quentin Sheets.xlsx
+++ b/docs/efforts/Quentin Sheets.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Your Name</t>
   </si>
@@ -56,8 +56,8 @@
     <t>Initiated the team’s repository on GitHub, developed a project plan, contributed to and edited presentation</t>
   </si>
   <si>
-    <t>Sprint1.docx;
-Sprint1.pptx</t>
+    <t>Sprint 1.docx
+Sprint 1.pptx</t>
   </si>
   <si>
     <t>https://github.com/quentinxs/GPTMS/blob/master/docs/sprints/Sprint%201.docx;
@@ -71,7 +71,37 @@
     <t>Sprint # 2</t>
   </si>
   <si>
+    <t>1,2,3,5,6[IT]</t>
+  </si>
+  <si>
+    <t>Started angular project for front end, created login module, conducted meetings between front and back end development</t>
+  </si>
+  <si>
+    <t>front-end/
+Sprint 2.pptx</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/tree/master/front-end
+https://github.com/quentinxs/GPTMS/blob/master/docs/presentations/Sprint%202.pptx</t>
+  </si>
+  <si>
     <t>Sprint # 3</t>
+  </si>
+  <si>
+    <t>1,3,5,6[IT]</t>
+  </si>
+  <si>
+    <t>Initiated multiple modules and class models for front end, created first service connection to back end endpoint, conducted meetings between front and back end development to resolve miscommunication</t>
+  </si>
+  <si>
+    <t>front-end/src/app/
+auth.service.ts
+Sprint 3.pptx</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/tree/master/front-end/src/app
+https://github.com/quentinxs/GPTMS/blob/master/front-end/src/app/auth.service.ts
+https://github.com/quentinxs/GPTMS/blob/master/docs/presentations/Sprint%203.pptx</t>
   </si>
   <si>
     <t>Sprint # 4</t>
@@ -271,7 +301,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -290,46 +320,49 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -350,44 +383,35 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,10 +432,10 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="fff2f2f2"/>
       <rgbColor rgb="ffdeeaf6"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="fffff2cb"/>
       <rgbColor rgb="ffe2eeda"/>
       <rgbColor rgb="fffbe4d5"/>
-      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -610,17 +634,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -648,10 +672,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -899,12 +923,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1191,7 +1215,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1219,10 +1243,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1483,10 +1507,10 @@
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.6719" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.8203" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7969" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.8516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.8516" style="1" customWidth="1"/>
     <col min="7" max="7" width="73" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.3672" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.3516" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1566,137 +1590,161 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" ht="45" customHeight="1">
       <c r="A5" t="s" s="13">
         <v>17</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" ht="17" customHeight="1">
+      <c r="C5" s="15">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s" s="16">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="59" customHeight="1">
       <c r="A6" t="s" s="13">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="C6" s="15">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s" s="13">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s" s="16">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s" s="16">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s" s="16">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" ht="17" customHeight="1">
       <c r="A7" t="s" s="13">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" ht="17" customHeight="1">
       <c r="A8" t="s" s="13">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" ht="17" customHeight="1">
       <c r="A9" t="s" s="13">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" ht="17" customHeight="1">
       <c r="A10" t="s" s="13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" ht="17" customHeight="1">
       <c r="A11" t="s" s="13">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" ht="17" customHeight="1">
       <c r="A12" t="s" s="13">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" ht="17" customHeight="1">
       <c r="A13" t="s" s="13">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" ht="17" customHeight="1">
       <c r="A14" t="s" s="13">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" ht="17" customHeight="1">
       <c r="A15" t="s" s="13">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -1734,29 +1782,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.67188" style="20" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="20" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="9" style="20" customWidth="1"/>
-    <col min="5" max="5" width="8.35156" style="20" customWidth="1"/>
-    <col min="6" max="9" width="10.8516" style="20" customWidth="1"/>
-    <col min="10" max="16384" width="10.8516" style="20" customWidth="1"/>
+    <col min="1" max="1" width="8.67188" style="21" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9" style="21" customWidth="1"/>
+    <col min="5" max="5" width="8.35156" style="21" customWidth="1"/>
+    <col min="6" max="9" width="10.8516" style="21" customWidth="1"/>
+    <col min="10" max="16384" width="10.8516" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1">
-      <c r="A1" t="s" s="21">
+      <c r="A1" t="s" s="22">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" t="s" s="23">
+      <c r="B1" s="23"/>
+      <c r="C1" t="s" s="24">
         <v>1</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" ht="41" customHeight="1">
       <c r="A2" t="s" s="4">
@@ -1766,177 +1814,199 @@
       <c r="C2" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" ht="22" customHeight="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" t="s" s="27">
-        <v>28</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" t="s" s="28">
+        <v>36</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" t="s" s="29">
+      <c r="A4" t="s" s="30">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="C4" s="31">
+      <c r="B4" t="s" s="31">
+        <v>37</v>
+      </c>
+      <c r="C4" s="32">
         <v>1</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="32">
         <v>2</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="32">
         <v>3</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="32">
         <v>4</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="32">
         <v>5</v>
       </c>
       <c r="H4" t="s" s="11">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="11">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="31" customHeight="1">
-      <c r="A5" s="32">
+      <c r="A5" s="33">
         <v>1</v>
       </c>
-      <c r="B5" t="s" s="33">
+      <c r="B5" t="s" s="34">
         <v>1</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="35"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="32">
+      <c r="F5" s="18"/>
+      <c r="G5" s="36">
         <v>2</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="32">
+      <c r="H5" s="18"/>
+      <c r="I5" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="36" customHeight="1">
-      <c r="A6" s="36">
+      <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="B6" t="s" s="34">
+        <v>1</v>
+      </c>
+      <c r="C6" s="36">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36">
+        <v>1</v>
+      </c>
+      <c r="E6" s="36">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="36">
+        <v>1</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" ht="36" customHeight="1">
-      <c r="A7" s="36">
+      <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="B7" t="s" s="34">
+        <v>1</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="36">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="36">
+        <v>1</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" ht="36" customHeight="1">
-      <c r="A8" s="36">
+      <c r="A8" s="33">
         <v>4</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" ht="36" customHeight="1">
-      <c r="A9" s="36">
+      <c r="A9" s="33">
         <v>5</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" ht="36" customHeight="1">
-      <c r="A10" s="36">
+      <c r="A10" s="33">
         <v>6</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" ht="36" customHeight="1">
-      <c r="A11" s="36">
+      <c r="A11" s="33">
         <v>7</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" ht="36" customHeight="1">
-      <c r="A12" s="36">
+      <c r="A12" s="33">
         <v>8</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" ht="36" customHeight="1">
-      <c r="A13" s="36">
+      <c r="A13" s="33">
         <v>9</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/docs/efforts/Quentin Sheets.xlsx
+++ b/docs/efforts/Quentin Sheets.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Your Name</t>
   </si>
@@ -105,6 +105,33 @@
   </si>
   <si>
     <t>Sprint # 4</t>
+  </si>
+  <si>
+    <t>1,4,5,6[IT]</t>
+  </si>
+  <si>
+    <t>Added two more service connections to back end endpoints, Populated front end pages with data from server, worked with back end to resolve merge conflicts and CORS issue that arose, helped write user stories for next sprint</t>
+  </si>
+  <si>
+    <t>user.service.ts
+course.service.ts
+front-end/src/app/
+UserController.php
+GitHub Issues/Story Board</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/blob/master/front-end/src/app/user.service.ts
+https://github.com/quentinxs/GPTMS/blob/master/front-end/src/app/course.service.ts
+https://github.com/quentinxs/GPTMS/tree/master/front-end/src/app
+https://github.com/quentinxs/GPTMS/blob/master/api/users/UserController.php
+https://github.com/quentinxs/GPTMS/projects/1</t>
+  </si>
+  <si>
+    <t>user.service.ts
+course.service.ts
+front-end/src/app/
+Lines 2-17
+Story Board / Issues</t>
   </si>
   <si>
     <t>Sprint # 5</t>
@@ -301,7 +328,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -352,9 +379,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1508,7 +1532,7 @@
     <col min="3" max="3" width="13.6719" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="44.8516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.8516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.2188" style="1" customWidth="1"/>
     <col min="7" max="7" width="73" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.3516" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.8516" style="1" customWidth="1"/>
@@ -1638,113 +1662,125 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" ht="73" customHeight="1">
       <c r="A7" t="s" s="13">
         <v>27</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="C7" s="15">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s" s="13">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s" s="16">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s" s="16">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s" s="16">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" ht="17" customHeight="1">
       <c r="A8" t="s" s="13">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" ht="17" customHeight="1">
       <c r="A9" t="s" s="13">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" ht="17" customHeight="1">
       <c r="A10" t="s" s="13">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" ht="17" customHeight="1">
       <c r="A11" t="s" s="13">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" ht="17" customHeight="1">
       <c r="A12" t="s" s="13">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" ht="17" customHeight="1">
       <c r="A13" t="s" s="13">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" ht="17" customHeight="1">
       <c r="A14" t="s" s="13">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" ht="17" customHeight="1">
       <c r="A15" t="s" s="13">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B15" s="14"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -1782,29 +1818,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.67188" style="21" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9" style="21" customWidth="1"/>
-    <col min="5" max="5" width="8.35156" style="21" customWidth="1"/>
-    <col min="6" max="9" width="10.8516" style="21" customWidth="1"/>
-    <col min="10" max="16384" width="10.8516" style="21" customWidth="1"/>
+    <col min="1" max="1" width="8.67188" style="20" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="20" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="9" style="20" customWidth="1"/>
+    <col min="5" max="5" width="8.35156" style="20" customWidth="1"/>
+    <col min="6" max="9" width="10.8516" style="20" customWidth="1"/>
+    <col min="10" max="16384" width="10.8516" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1">
-      <c r="A1" t="s" s="22">
+      <c r="A1" t="s" s="21">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" t="s" s="24">
+      <c r="B1" s="22"/>
+      <c r="C1" t="s" s="23">
         <v>1</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" ht="41" customHeight="1">
       <c r="A2" t="s" s="4">
@@ -1814,199 +1850,209 @@
       <c r="C2" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" ht="22" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" t="s" s="28">
-        <v>36</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" t="s" s="27">
+        <v>41</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" t="s" s="30">
+      <c r="A4" t="s" s="29">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="31">
-        <v>37</v>
-      </c>
-      <c r="C4" s="32">
+      <c r="B4" t="s" s="30">
+        <v>42</v>
+      </c>
+      <c r="C4" s="31">
         <v>1</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="31">
         <v>2</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <v>3</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="31">
         <v>4</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="31">
         <v>5</v>
       </c>
       <c r="H4" t="s" s="11">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s" s="11">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" ht="31" customHeight="1">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>1</v>
       </c>
-      <c r="B5" t="s" s="34">
+      <c r="B5" t="s" s="33">
         <v>1</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="36">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="35">
         <v>2</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="36">
+      <c r="H5" s="17"/>
+      <c r="I5" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="36" customHeight="1">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>2</v>
       </c>
-      <c r="B6" t="s" s="34">
+      <c r="B6" t="s" s="33">
         <v>1</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>1</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <v>1</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>1</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="36">
+      <c r="F6" s="17"/>
+      <c r="G6" s="35">
         <v>1</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="36">
+      <c r="H6" s="17"/>
+      <c r="I6" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>3</v>
       </c>
-      <c r="B7" t="s" s="34">
+      <c r="B7" t="s" s="33">
         <v>1</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>1</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="36">
+      <c r="D7" s="17"/>
+      <c r="E7" s="35">
         <v>1</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="36">
+      <c r="F7" s="17"/>
+      <c r="G7" s="35">
         <v>1</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="36">
+      <c r="H7" s="17"/>
+      <c r="I7" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="36" customHeight="1">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>4</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="B8" t="s" s="33">
+        <v>1</v>
+      </c>
+      <c r="C8" s="35">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="35">
+        <v>1</v>
+      </c>
+      <c r="G8" s="35">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="35">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" ht="36" customHeight="1">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>5</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" ht="36" customHeight="1">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>6</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" ht="36" customHeight="1">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>7</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" ht="36" customHeight="1">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>8</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" ht="36" customHeight="1">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>9</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/docs/efforts/Quentin Sheets.xlsx
+++ b/docs/efforts/Quentin Sheets.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>Your Name</t>
   </si>
@@ -137,7 +137,42 @@
     <t>Sprint # 5</t>
   </si>
   <si>
+    <t>4,5,6[IT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed error in guard removing ability of non-authenticated users to see certain pages, added map and scorecard to course page, started admin module, </t>
+  </si>
+  <si>
+    <t>auth.guard.ts
+app/course-detail
+app/admin</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/blob/master/front-end/src/app/auth.guard.ts https://github.com/quentinxs/GPTMS/tree/master/front-end/src/app/course-detail
+https://github.com/quentinxs/GPTMS/tree/master/front-end/src/app/admin</t>
+  </si>
+  <si>
+    <t>Lines 10-17
+app/course-detail
+app/admin</t>
+  </si>
+  <si>
     <t>Sprint # 6</t>
+  </si>
+  <si>
+    <t>Added cards to dashboard page, started on course management page, assisted Jakob on in-game scorekeeping, connected signup component to backend endpoint</t>
+  </si>
+  <si>
+    <t>app/landing
+app/manage-course
+app/game
+user.service.ts</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/tree/master/front-end/src/app/landing
+https://github.com/quentinxs/GPTMS/tree/master/front-end/src/app/manage-course
+https://github.com/quentinxs/GPTMS/tree/master/front-end/src/app/game
+https://github.com/quentinxs/GPTMS/blob/master/front-end/src/app/user.service.ts</t>
   </si>
   <si>
     <t>Sprint # 7</t>
@@ -1686,33 +1721,57 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" ht="45" customHeight="1">
       <c r="A8" t="s" s="13">
         <v>33</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
+      <c r="C8" s="15">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s" s="13">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s" s="16">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s" s="16">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s" s="16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" ht="59" customHeight="1">
       <c r="A9" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="E9" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s" s="16">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s" s="16">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s" s="16">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" ht="17" customHeight="1">
       <c r="A10" t="s" s="13">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="17"/>
@@ -1724,7 +1783,7 @@
     </row>
     <row r="11" ht="17" customHeight="1">
       <c r="A11" t="s" s="13">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="17"/>
@@ -1736,7 +1795,7 @@
     </row>
     <row r="12" ht="17" customHeight="1">
       <c r="A12" t="s" s="13">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="17"/>
@@ -1748,7 +1807,7 @@
     </row>
     <row r="13" ht="17" customHeight="1">
       <c r="A13" t="s" s="13">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="17"/>
@@ -1760,7 +1819,7 @@
     </row>
     <row r="14" ht="17" customHeight="1">
       <c r="A14" t="s" s="13">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="17"/>
@@ -1772,7 +1831,7 @@
     </row>
     <row r="15" ht="17" customHeight="1">
       <c r="A15" t="s" s="13">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="17"/>
@@ -1861,7 +1920,7 @@
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" t="s" s="27">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -1875,7 +1934,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="30">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C4" s="31">
         <v>1</v>
@@ -1893,10 +1952,10 @@
         <v>5</v>
       </c>
       <c r="H4" t="s" s="11">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s" s="11">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" ht="31" customHeight="1">
@@ -1993,27 +2052,39 @@
       <c r="A9" s="32">
         <v>5</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" t="s" s="33">
+        <v>1</v>
+      </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="F9" s="35">
+        <v>2</v>
+      </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="35">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" ht="36" customHeight="1">
       <c r="A10" s="32">
         <v>6</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" t="s" s="33">
+        <v>1</v>
+      </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="F10" s="35">
+        <v>2</v>
+      </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="35">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" ht="36" customHeight="1">
       <c r="A11" s="32">

--- a/docs/efforts/Quentin Sheets.xlsx
+++ b/docs/efforts/Quentin Sheets.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>Your Name</t>
   </si>
@@ -137,7 +137,7 @@
     <t>Sprint # 5</t>
   </si>
   <si>
-    <t>4,5,6[IT]</t>
+    <t>3,4,5,6[IT]</t>
   </si>
   <si>
     <t xml:space="preserve">Fixed error in guard removing ability of non-authenticated users to see certain pages, added map and scorecard to course page, started admin module, </t>
@@ -176,6 +176,56 @@
   </si>
   <si>
     <t>Sprint # 7</t>
+  </si>
+  <si>
+    <t>1,3,4,5,6[IT]</t>
+  </si>
+  <si>
+    <t>Completed course management page and in-game scorekeeping, added localhost security certificates to the application so that location services could be used</t>
+  </si>
+  <si>
+    <t>app/manage-course
+app/game
+localhost.crt
+localhost.key</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/quentinxs/GPTMS/tree/master/front-end/src/app/manage-course
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/quentinxs/GPTMS/tree/master/front-end/src/app/game
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/quentinxs/GPTMS/blob/master/front-end/localhost.crt
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="14"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://github.com/quentinxs/GPTMS/blob/master/front-end/localhost.key</t>
+    </r>
   </si>
   <si>
     <t>Sprint # 8</t>
@@ -212,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -238,6 +288,12 @@
       <b val="1"/>
       <sz val="14"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="14"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -292,7 +348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -427,16 +483,16 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -460,7 +516,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -494,6 +550,7 @@
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="fffff2cb"/>
       <rgbColor rgb="ffe2eeda"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="fffbe4d5"/>
     </indexedColors>
   </colors>
@@ -1769,21 +1826,33 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" ht="59" customHeight="1">
       <c r="A10" t="s" s="13">
         <v>43</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="C10" s="15">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s" s="13">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s" s="16">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s" s="16">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s" s="16">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s" s="16">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" ht="17" customHeight="1">
       <c r="A11" t="s" s="13">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="17"/>
@@ -1795,7 +1864,7 @@
     </row>
     <row r="12" ht="17" customHeight="1">
       <c r="A12" t="s" s="13">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="17"/>
@@ -1807,7 +1876,7 @@
     </row>
     <row r="13" ht="17" customHeight="1">
       <c r="A13" t="s" s="13">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="17"/>
@@ -1819,7 +1888,7 @@
     </row>
     <row r="14" ht="17" customHeight="1">
       <c r="A14" t="s" s="13">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="17"/>
@@ -1831,7 +1900,7 @@
     </row>
     <row r="15" ht="17" customHeight="1">
       <c r="A15" t="s" s="13">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="17"/>
@@ -1861,6 +1930,9 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C2:H2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G10" r:id="rId1" location="" tooltip="" display="https://github.com/quentinxs/GPTMS/blob/master/front-end/localhost.key"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -1920,7 +1992,7 @@
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" t="s" s="27">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -1934,7 +2006,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="30">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C4" s="31">
         <v>1</v>
@@ -1952,10 +2024,10 @@
         <v>5</v>
       </c>
       <c r="H4" t="s" s="11">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s" s="11">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="31" customHeight="1">
@@ -2057,11 +2129,15 @@
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="E9" s="35">
+        <v>1</v>
+      </c>
       <c r="F9" s="35">
         <v>2</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="35">
+        <v>1</v>
+      </c>
       <c r="H9" s="17"/>
       <c r="I9" s="35">
         <v>3</v>
@@ -2076,11 +2152,15 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="35">
+        <v>1</v>
+      </c>
       <c r="F10" s="35">
         <v>2</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="35">
+        <v>1</v>
+      </c>
       <c r="H10" s="17"/>
       <c r="I10" s="35">
         <v>3</v>
@@ -2090,14 +2170,26 @@
       <c r="A11" s="32">
         <v>7</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="B11" t="s" s="33">
+        <v>1</v>
+      </c>
+      <c r="C11" s="35">
+        <v>1</v>
+      </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="E11" s="35">
+        <v>1</v>
+      </c>
+      <c r="F11" s="35">
+        <v>2</v>
+      </c>
+      <c r="G11" s="35">
+        <v>1</v>
+      </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="35">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" ht="36" customHeight="1">
       <c r="A12" s="32">
